--- a/data/trans_dic/P14B23-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Clase-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.02882490919928651</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05295171955548386</v>
+        <v>0.05295171955548385</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.01744439198600803</v>
@@ -664,7 +664,7 @@
         <v>0.01790432276193043</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.03537188528280615</v>
+        <v>0.03537188528280614</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004586030449678411</v>
+        <v>0.0044383639946216</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002344415869643051</v>
+        <v>0.002337377086853492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009908880668095916</v>
+        <v>0.01003504453848983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008007033226736442</v>
+        <v>0.008438875112664852</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01423807926518014</v>
+        <v>0.01389190735536505</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03624482072301426</v>
+        <v>0.03780512276356751</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008866137590426921</v>
+        <v>0.008098699570614282</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01019965407173073</v>
+        <v>0.009786954792926463</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02496653357625439</v>
+        <v>0.0256417904872812</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03443343122941069</v>
+        <v>0.03102933635087773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02316715739278429</v>
+        <v>0.02276198668392937</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03849591332018788</v>
+        <v>0.03794083672716859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04699232808481255</v>
+        <v>0.05407157001423853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05289523678117326</v>
+        <v>0.05271048924451087</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07339469224041824</v>
+        <v>0.07326278270641375</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03344148656291288</v>
+        <v>0.03270122989433876</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03086639049607759</v>
+        <v>0.02926208410237758</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04801522556228726</v>
+        <v>0.04709908887645394</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.02380101045203136</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.07012867360114654</v>
+        <v>0.07012867360114655</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02530720174911591</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009011487927008784</v>
+        <v>0.009504518087077852</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004971904845186296</v>
+        <v>0.004986640518946462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01343535309222143</v>
+        <v>0.0138641238719735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01559844197962727</v>
+        <v>0.01724688798918723</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0106027937457241</v>
+        <v>0.01044337950611934</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04990677957311682</v>
+        <v>0.05124807694840578</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01550069312925317</v>
+        <v>0.01475730694312708</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01034790121798541</v>
+        <v>0.01042954511455003</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03417208250853736</v>
+        <v>0.03505501731951054</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03959554225419779</v>
+        <v>0.0409666708281629</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02891368773399935</v>
+        <v>0.0323994567414377</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04119413915626143</v>
+        <v>0.04097991484179279</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05932211754983194</v>
+        <v>0.06090826327307282</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04796571776690386</v>
+        <v>0.04483152149017903</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09372926197017584</v>
+        <v>0.09409518284553406</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04121104285517082</v>
+        <v>0.04011278535916248</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03038965481909473</v>
+        <v>0.0321019617430738</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05911479249918533</v>
+        <v>0.05992842027604604</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.01395004868990072</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04931981342839469</v>
+        <v>0.04931981342839468</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.08624802504326194</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02774395359801428</v>
+        <v>0.02761558396260326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0058703106510021</v>
+        <v>0.005342512636629075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03252740549173563</v>
+        <v>0.03285776563819354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0580343440457318</v>
+        <v>0.05540769173684903</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05230106620294493</v>
+        <v>0.05215052738470054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07212191987764643</v>
+        <v>0.072504211672918</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0406618873816641</v>
+        <v>0.04132364695846977</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02117324025322928</v>
+        <v>0.0212112018498577</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04868073073643302</v>
+        <v>0.04759443654711502</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06163130322683949</v>
+        <v>0.06445756461100909</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02819179890063174</v>
+        <v>0.02630399368793566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07518647240361312</v>
+        <v>0.07577274400655547</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1256086900893598</v>
+        <v>0.1270910223238531</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1483924808751855</v>
+        <v>0.1463584767220046</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1447613086542004</v>
+        <v>0.143256957727475</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07329593650815766</v>
+        <v>0.07367771716840417</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0499628212882489</v>
+        <v>0.05114268517437038</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08461728315724808</v>
+        <v>0.08381157006149843</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.04974066584921096</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.07635159198107183</v>
+        <v>0.0763515919810718</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04473427128638149</v>
@@ -991,7 +991,7 @@
         <v>0.03629621682360117</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.05822367848801695</v>
+        <v>0.05822367848801696</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01996168986398552</v>
+        <v>0.01915632078067326</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01926461431234153</v>
+        <v>0.01808712464978552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03335140762571735</v>
+        <v>0.03326326129359782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05195350637365084</v>
+        <v>0.05211535755695473</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03598625180821174</v>
+        <v>0.03706126343328852</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06253431518090111</v>
+        <v>0.06225108055858225</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03592456902916011</v>
+        <v>0.03576751010055218</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02832783604016522</v>
+        <v>0.02849513255180375</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04949083502176459</v>
+        <v>0.04914275182778841</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04159164538400351</v>
+        <v>0.04010139200739248</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03768539236581314</v>
+        <v>0.0374066140125804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05681818244314919</v>
+        <v>0.05915755662315634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09080515310922843</v>
+        <v>0.08935925616899791</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06762752862999848</v>
+        <v>0.06804758624989582</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09076963331636687</v>
+        <v>0.09240076285508293</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05533060580261583</v>
+        <v>0.05501482738692001</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0454340884499817</v>
+        <v>0.04497615896490852</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06902010281115037</v>
+        <v>0.06906251530108418</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.03086709051517493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04303907788420501</v>
+        <v>0.043039077884205</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1122769809413519</v>
@@ -1100,7 +1100,7 @@
         <v>0.06689555646121267</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.07799142986930396</v>
+        <v>0.07799142986930395</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007843034477941149</v>
+        <v>0.007593869428336103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0196395733980288</v>
+        <v>0.01938308162225969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02890444728023021</v>
+        <v>0.0274552980187843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08893820133878397</v>
+        <v>0.08993071876481214</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07529998535991247</v>
+        <v>0.07776126954186939</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08588975134351089</v>
+        <v>0.08602043681457511</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06031217315063602</v>
+        <v>0.06005714811012856</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05458228994941303</v>
+        <v>0.05334293042209818</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06619584627030563</v>
+        <v>0.06607642592235653</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03041944050272203</v>
+        <v>0.03130376428258305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04584638423040214</v>
+        <v>0.0467404460746889</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06539804749690055</v>
+        <v>0.06207995769556092</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1336372397684927</v>
+        <v>0.1356025402458016</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.12032669297138</v>
+        <v>0.1240482983446494</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1184016938869809</v>
+        <v>0.1181271330275571</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08929790782191112</v>
+        <v>0.08873505854498968</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08291777639439445</v>
+        <v>0.08237333534447817</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09060261279145855</v>
+        <v>0.090448884047167</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.08414086830433962</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.07935287516240136</v>
+        <v>0.07935287516240139</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.07774280310595243</v>
@@ -1224,25 +1224,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02024717389381033</v>
+        <v>0.01934454553706337</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08030148106051231</v>
+        <v>0.07849422693209601</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06726592165177747</v>
+        <v>0.06849131573131423</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06355548818004939</v>
+        <v>0.06357226868896179</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06384124912038151</v>
+        <v>0.06320353286579913</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05437223075038466</v>
+        <v>0.05456092523953373</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05817362586387723</v>
+        <v>0.05729614768506413</v>
       </c>
     </row>
     <row r="21">
@@ -1254,28 +1254,28 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1035826132376948</v>
+        <v>0.09582175376390491</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1158481808958891</v>
+        <v>0.1145386278440551</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1029500403480876</v>
+        <v>0.1038482050978655</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09831534009248133</v>
+        <v>0.09772524826956058</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09507005685591825</v>
+        <v>0.09302507754214215</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08159763047688365</v>
+        <v>0.08311479412275651</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08854500751861169</v>
+        <v>0.08771383537245055</v>
       </c>
     </row>
     <row r="22">
@@ -1296,7 +1296,7 @@
         <v>0.0197568039917298</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.0382384426369208</v>
+        <v>0.03823844263692079</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.08053457331961873</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01929913633581974</v>
+        <v>0.01951218720719813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01549303553342751</v>
+        <v>0.01549595672694255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03194719084455059</v>
+        <v>0.03194349894338347</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07107613224656385</v>
+        <v>0.07153231912447079</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0583132603830831</v>
+        <v>0.05857049076442741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07284653017531335</v>
+        <v>0.07318865256144727</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04804597224781915</v>
+        <v>0.04802154892184654</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03963336072211653</v>
+        <v>0.03918735267156079</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0550897983454622</v>
+        <v>0.05476745269864931</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03097906294941224</v>
+        <v>0.03094391732506784</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0252313182423945</v>
+        <v>0.02511940246079157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04644795017295254</v>
+        <v>0.04567560633144115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08954254283419093</v>
+        <v>0.09103047923782498</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07649005276478901</v>
+        <v>0.07601641188615645</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08713684804902265</v>
+        <v>0.08867070193542191</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05872098763621285</v>
+        <v>0.05914609784808252</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04983946006754676</v>
+        <v>0.04923086799043722</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06520911842070723</v>
+        <v>0.06505990628904194</v>
       </c>
     </row>
     <row r="25">
@@ -1615,31 +1615,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2005</v>
+        <v>1941</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5456</v>
+        <v>5525</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2518</v>
+        <v>2654</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4941</v>
+        <v>4821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17702</v>
+        <v>18464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6664</v>
+        <v>6088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7916</v>
+        <v>7596</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>25941</v>
+        <v>26643</v>
       </c>
     </row>
     <row r="7">
@@ -1650,31 +1650,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15055</v>
+        <v>13566</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9941</v>
+        <v>9767</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21197</v>
+        <v>20891</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14777</v>
+        <v>17003</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18358</v>
+        <v>18293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35847</v>
+        <v>35782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25137</v>
+        <v>24580</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23957</v>
+        <v>22712</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49889</v>
+        <v>48937</v>
       </c>
     </row>
     <row r="8">
@@ -1759,31 +1759,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3774</v>
+        <v>3980</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1876</v>
+        <v>1881</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6492</v>
+        <v>6699</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5272</v>
+        <v>5830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3947</v>
+        <v>3888</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21118</v>
+        <v>21685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11731</v>
+        <v>11168</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7756</v>
+        <v>7817</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30972</v>
+        <v>31772</v>
       </c>
     </row>
     <row r="11">
@@ -1794,31 +1794,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16582</v>
+        <v>17157</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10907</v>
+        <v>12222</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19906</v>
+        <v>19802</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20052</v>
+        <v>20588</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17856</v>
+        <v>16690</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39661</v>
+        <v>39816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>31189</v>
+        <v>30358</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22777</v>
+        <v>24060</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53579</v>
+        <v>54316</v>
       </c>
     </row>
     <row r="12">
@@ -1903,31 +1903,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17433</v>
+        <v>17353</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3064</v>
+        <v>2788</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15340</v>
+        <v>15496</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15038</v>
+        <v>14358</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8688</v>
+        <v>8663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13523</v>
+        <v>13594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36087</v>
+        <v>36674</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14568</v>
+        <v>14594</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32086</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="15">
@@ -1938,31 +1938,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38727</v>
+        <v>40503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14714</v>
+        <v>13728</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>35459</v>
+        <v>35735</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32548</v>
+        <v>32932</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24651</v>
+        <v>24314</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27142</v>
+        <v>26860</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65049</v>
+        <v>65388</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34376</v>
+        <v>35188</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55772</v>
+        <v>55241</v>
       </c>
     </row>
     <row r="16">
@@ -2047,31 +2047,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23114</v>
+        <v>22181</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22147</v>
+        <v>20794</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>37749</v>
+        <v>37649</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39413</v>
+        <v>39536</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29720</v>
+        <v>30608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53855</v>
+        <v>53611</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>68851</v>
+        <v>68550</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>55962</v>
+        <v>56293</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>98638</v>
+        <v>97944</v>
       </c>
     </row>
     <row r="19">
@@ -2082,31 +2082,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48159</v>
+        <v>46434</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43325</v>
+        <v>43004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64309</v>
+        <v>66957</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>68887</v>
+        <v>67790</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55852</v>
+        <v>56199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>78172</v>
+        <v>79577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>106043</v>
+        <v>105438</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89756</v>
+        <v>88851</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137561</v>
+        <v>137645</v>
       </c>
     </row>
     <row r="20">
@@ -2191,31 +2191,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4005</v>
+        <v>3877</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12190</v>
+        <v>12031</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16417</v>
+        <v>15594</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67523</v>
+        <v>68276</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55590</v>
+        <v>57407</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71361</v>
+        <v>71470</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>76585</v>
+        <v>76261</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>74175</v>
+        <v>72490</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>92596</v>
+        <v>92429</v>
       </c>
     </row>
     <row r="23">
@@ -2226,31 +2226,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15532</v>
+        <v>15984</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28457</v>
+        <v>29012</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>37144</v>
+        <v>35259</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>101459</v>
+        <v>102951</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>88830</v>
+        <v>91578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>98374</v>
+        <v>98146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>113391</v>
+        <v>112676</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>112681</v>
+        <v>111941</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>126736</v>
+        <v>126521</v>
       </c>
     </row>
     <row r="24">
@@ -2339,25 +2339,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4803</v>
+        <v>4589</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>89083</v>
+        <v>87078</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>72783</v>
+        <v>74109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53659</v>
+        <v>53673</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>87860</v>
+        <v>86983</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>74445</v>
+        <v>74703</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>62915</v>
+        <v>61966</v>
       </c>
     </row>
     <row r="27">
@@ -2369,28 +2369,28 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>24573</v>
+        <v>22732</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>128516</v>
+        <v>127064</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>111395</v>
+        <v>112366</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>83006</v>
+        <v>82508</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>130839</v>
+        <v>128024</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>111721</v>
+        <v>113798</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>95762</v>
+        <v>94863</v>
       </c>
     </row>
     <row r="28">
@@ -2475,31 +2475,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>65998</v>
+        <v>66727</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>52455</v>
+        <v>52465</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>109977</v>
+        <v>109965</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>251523</v>
+        <v>253137</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>205939</v>
+        <v>206847</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>264826</v>
+        <v>266070</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>334330</v>
+        <v>334160</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>274157</v>
+        <v>271071</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>389918</v>
+        <v>387637</v>
       </c>
     </row>
     <row r="31">
@@ -2510,31 +2510,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>105941</v>
+        <v>105821</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>85426</v>
+        <v>85047</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>159896</v>
+        <v>157237</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>316871</v>
+        <v>322137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>270132</v>
+        <v>268459</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>316777</v>
+        <v>322353</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>408612</v>
+        <v>411570</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>344755</v>
+        <v>340546</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>461542</v>
+        <v>460485</v>
       </c>
     </row>
     <row r="32">
